--- a/6 5/ExactModelData.xlsx
+++ b/6 5/ExactModelData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\6 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E5A105-F6C5-4691-8F85-1D3BCB403C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A75148-2EDC-4CA1-B1EB-A040E65559E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,21 @@
     <sheet name="1D" sheetId="3" r:id="rId1"/>
     <sheet name="Distances" sheetId="1" r:id="rId2"/>
     <sheet name="Times" sheetId="4" r:id="rId3"/>
-    <sheet name="HorseTrailer" sheetId="2" r:id="rId4"/>
-    <sheet name="HorseStore" sheetId="5" r:id="rId5"/>
-    <sheet name="TrailerStore" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="AverageUnload">'1D'!$L$2:$L$9</definedName>
+    <definedName name="CoordinatesX">'1D'!$G$3:$G$8</definedName>
+    <definedName name="CoordinatesY">'1D'!$H$3:$H$8</definedName>
     <definedName name="Demand">'1D'!$I$2:$I$9</definedName>
-    <definedName name="DistanceCost">'1D'!$B$2:$B$6</definedName>
+    <definedName name="DistanceCost">'1D'!$C$2:$C$6</definedName>
     <definedName name="Distances">Distances!$A$1:$H$8</definedName>
-    <definedName name="Horses">'1D'!$A$2:$A$6</definedName>
-    <definedName name="HorseStore">HorseStore!$A$1:$F$5</definedName>
-    <definedName name="HorseTrailer">HorseTrailer!$A$1:$E$5</definedName>
     <definedName name="Locations">'1D'!$F$2:$F$9</definedName>
     <definedName name="PalletCapacity">'1D'!$E$2:$E$6</definedName>
     <definedName name="Stores">'1D'!$F$3:$F$8</definedName>
-    <definedName name="TimeCost">'1D'!$C$2:$C$6</definedName>
+    <definedName name="TimeCost">'1D'!$D$2:$D$6</definedName>
     <definedName name="Times">Times!$A$1:$H$8</definedName>
-    <definedName name="Trailers">'1D'!$D$2:$D$6</definedName>
-    <definedName name="TrailerStore">TrailerStore!$A$1:$F$5</definedName>
+    <definedName name="Vehicles">'1D'!$A$2:$A$6</definedName>
+    <definedName name="VehicleTypes">'1D'!$B$2:$B$6</definedName>
     <definedName name="WindowEnd">'1D'!$K$2:$K$9</definedName>
     <definedName name="WindowStart">'1D'!$J$2:$J$9</definedName>
   </definedNames>
@@ -56,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -78,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Pallets</t>
   </si>
@@ -98,12 +94,6 @@
     <t>Time Cost</t>
   </si>
   <si>
-    <t>Trailer</t>
-  </si>
-  <si>
-    <t>Horse</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -113,6 +103,81 @@
     <t>SP2</t>
   </si>
   <si>
+    <t>Depot</t>
+  </si>
+  <si>
+    <t>Average Unload</t>
+  </si>
+  <si>
+    <t>DepotReturn</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Max X &amp; Y</t>
+  </si>
+  <si>
+    <t>Min X &amp; Y</t>
+  </si>
+  <si>
+    <t>Num stores</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Max Demand</t>
+  </si>
+  <si>
+    <t>Distance Cost Min</t>
+  </si>
+  <si>
+    <t>Distance Cost Max</t>
+  </si>
+  <si>
+    <t>Time Cost Max</t>
+  </si>
+  <si>
+    <t>Time Cost Min</t>
+  </si>
+  <si>
+    <t>Chance of having window</t>
+  </si>
+  <si>
+    <t>Unload Min</t>
+  </si>
+  <si>
+    <t>Unload Max</t>
+  </si>
+  <si>
+    <t>Total Demand</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Vehicle Types</t>
+  </si>
+  <si>
+    <t>Rigid</t>
+  </si>
+  <si>
+    <t>8 metre</t>
+  </si>
+  <si>
+    <t>11 metre</t>
+  </si>
+  <si>
+    <t>Number of vehicle types</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
     <t>SP3</t>
   </si>
   <si>
@@ -120,87 +185,6 @@
   </si>
   <si>
     <t>SP5</t>
-  </si>
-  <si>
-    <t>C 1</t>
-  </si>
-  <si>
-    <t>C 2</t>
-  </si>
-  <si>
-    <t>C 3</t>
-  </si>
-  <si>
-    <t>C 4</t>
-  </si>
-  <si>
-    <t>C 5</t>
-  </si>
-  <si>
-    <t>Depot</t>
-  </si>
-  <si>
-    <t>Average Unload</t>
-  </si>
-  <si>
-    <t>DepotReturn</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Max X &amp; Y</t>
-  </si>
-  <si>
-    <t>Min X &amp; Y</t>
-  </si>
-  <si>
-    <t>Num stores</t>
-  </si>
-  <si>
-    <t>Max Trailer Capacity</t>
-  </si>
-  <si>
-    <t>Min Trailer Capacity</t>
-  </si>
-  <si>
-    <t>Number of vehicles</t>
-  </si>
-  <si>
-    <t>Configuration</t>
-  </si>
-  <si>
-    <t>Max Demand</t>
-  </si>
-  <si>
-    <t>Distance Cost Min</t>
-  </si>
-  <si>
-    <t>Distance Cost Max</t>
-  </si>
-  <si>
-    <t>Time Cost Max</t>
-  </si>
-  <si>
-    <t>Time Cost Min</t>
-  </si>
-  <si>
-    <t>Chance of having window</t>
-  </si>
-  <si>
-    <t>Unload Min</t>
-  </si>
-  <si>
-    <t>Unload Max</t>
-  </si>
-  <si>
-    <t>Compatability Chance</t>
-  </si>
-  <si>
-    <t>Total Demand</t>
   </si>
 </sst>
 </file>
@@ -276,17 +260,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -319,62 +304,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Plot of Locations on Cartesian Plane</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -426,22 +356,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.80199137924393</c:v>
+                  <c:v>-23.998066958797438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-46.650691956625465</c:v>
+                  <c:v>-58.295525382486332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-72.657238083779887</c:v>
+                  <c:v>14.603085803194489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-57.657569974784693</c:v>
+                  <c:v>-11.343950447235912</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-16.844968076945776</c:v>
+                  <c:v>43.223247266323398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-45.567852266627639</c:v>
+                  <c:v>-17.958963772503495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,22 +386,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.59588810013237</c:v>
+                  <c:v>-39.573002536940535</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-73.50524980130902</c:v>
+                  <c:v>1.4440252091573598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-52.076951421241375</c:v>
+                  <c:v>7.263623531182418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-84.265720718902287</c:v>
+                  <c:v>40.699039481047464</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.017554117899294</c:v>
+                  <c:v>37.429449526918546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-21.264194893978072</c:v>
+                  <c:v>-8.2696209797181979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,6 +428,8 @@
         <c:axId val="506125392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="-100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -555,6 +487,7 @@
         <c:crossAx val="506128344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="506128344"/>
@@ -619,6 +552,7 @@
         <c:crossAx val="506125392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1235,12 +1169,12 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1535,18 +1469,18 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.85546875" customWidth="1"/>
@@ -1554,7 +1488,7 @@
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.42578125" customWidth="1"/>
@@ -1566,30 +1500,30 @@
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -1601,34 +1535,46 @@
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>Rigid</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.3880104124132016</v>
+      </c>
+      <c r="D2" s="8">
+        <f ca="1"/>
+        <v>11.449920319647729</v>
+      </c>
+      <c r="E2" s="2">
+        <f ca="1"/>
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" cm="1">
-        <f t="array" aca="1" ref="B2:B6" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>0.84258414839692763</v>
-      </c>
-      <c r="C2" s="2" cm="1">
-        <f t="array" aca="1" ref="C2:C6" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>12.268777432727285</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" cm="1">
-        <f t="array" aca="1" ref="E2:E6" ca="1">_xlfn.RANDARRAY(P8,1,P14,P13,TRUE)</f>
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1647,138 +1593,180 @@
       </c>
       <c r="L2" cm="1">
         <f t="array" aca="1" ref="L2:L8" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
-        <v>1.7667631618962676E-2</v>
+        <v>6.5889076700628851E-2</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="P2">
         <v>6</v>
       </c>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" cm="1">
+        <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
+        <v>1.3880104124132016</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
+        <v>11.449920319647729</v>
+      </c>
+      <c r="U2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <f ca="1"/>
-        <v>1.4184348117503482</v>
-      </c>
-      <c r="C3" s="2">
-        <f ca="1"/>
-        <v>13.678628916378015</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>11 metre</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.1525435534640756</v>
+      </c>
+      <c r="D3" s="8">
+        <f ca="1"/>
+        <v>10.125960716283139</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H8" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>25.80199137924393</v>
+        <v>-23.998066958797438</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>46.59588810013237</v>
+        <v>-39.573002536940535</v>
       </c>
       <c r="I3" cm="1">
-        <f t="array" aca="1" ref="I3:I8" ca="1">_xlfn.RANDARRAY(P2,1,0,ROUNDUP((P17/P2),0),TRUE)</f>
-        <v>4</v>
+        <f t="array" aca="1" ref="I3:I8" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
+        <v>8</v>
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <f ca="1">IF(J3=0,24,J3+1)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L3">
         <f ca="1"/>
-        <v>0.14494723257090483</v>
+        <v>0.12087296988564111</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
-      <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <f ca="1"/>
+        <v>1.2859076291681188</v>
+      </c>
+      <c r="T3">
+        <f ca="1"/>
+        <v>13.995822582786426</v>
+      </c>
+      <c r="U3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <f ca="1"/>
-        <v>0.7553568527851966</v>
-      </c>
-      <c r="C4" s="2">
-        <f ca="1"/>
-        <v>8.1298743963267874</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B5" ca="1" si="0">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>8 metre</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.2859076291681188</v>
+      </c>
+      <c r="D4" s="8">
+        <f ca="1"/>
+        <v>13.995822582786426</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>-46.650691956625465</v>
+        <v>-58.295525382486332</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>-73.50524980130902</v>
+        <v>1.4440252091573598</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J8" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
+        <f t="shared" ref="J4:J8" ca="1" si="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K6" ca="1" si="1">IF(J4=0,24,J4+1)</f>
+        <f t="shared" ref="K4:K6" ca="1" si="2">IF(J4=0,24,J4+1)</f>
         <v>24</v>
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>0.11594005380413269</v>
+        <v>0.13917919768142664</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="P4">
         <v>-100</v>
       </c>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4">
+        <f ca="1"/>
+        <v>1.1525435534640756</v>
+      </c>
+      <c r="T4">
+        <f ca="1"/>
+        <v>10.125960716283139</v>
+      </c>
+      <c r="U4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <f ca="1"/>
-        <v>0.88559749209781224</v>
-      </c>
-      <c r="C5" s="2">
-        <f ca="1"/>
-        <v>10.197550357506366</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Rigid</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5:E5" ca="1">_xlfn.XLOOKUP(B5,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.3880104124132016</v>
+      </c>
+      <c r="D5" s="8">
+        <f ca="1"/>
+        <v>11.449920319647729</v>
       </c>
       <c r="E5" s="2">
         <f ca="1"/>
@@ -1789,165 +1777,166 @@
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>-72.657238083779887</v>
+        <v>14.603085803194489</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>-52.076951421241375</v>
+        <v>7.263623531182418</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>0.16514503434391592</v>
+        <v>0.15119010018956883</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="P5" s="5">
         <v>0.33</v>
       </c>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <f ca="1"/>
-        <v>1.4168756820046331</v>
-      </c>
-      <c r="C6" s="2">
-        <f ca="1"/>
-        <v>7.8963313436026255</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>11 metre</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6:E6" ca="1">_xlfn.XLOOKUP(B6,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.1525435534640756</v>
+      </c>
+      <c r="D6" s="8">
+        <f ca="1"/>
+        <v>10.125960716283139</v>
       </c>
       <c r="E6" s="2">
         <f ca="1"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>-57.657569974784693</v>
+        <v>-11.343950447235912</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>-84.265720718902287</v>
+        <v>40.699039481047464</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
       <c r="K6">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>0.13206872508907225</v>
+        <v>0.11874334054165578</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P6">
         <f>10/60</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>-16.844968076945776</v>
+        <v>43.223247266323398</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>79.017554117899294</v>
+        <v>37.429449526918546</v>
       </c>
       <c r="I7">
         <f ca="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7" ca="1" si="2">IF(J7=0,24,J7+1)</f>
-        <v>17</v>
+        <f t="shared" ref="K7:K8" ca="1" si="3">IF(J7=0,24,J7+1)</f>
+        <v>24</v>
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>0.11367124098637554</v>
+        <v>0.1251762946504682</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="P7">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8">
         <f ca="1"/>
-        <v>-45.567852266627639</v>
+        <v>-17.958963772503495</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>-21.264194893978072</v>
+        <v>-8.2696209797181979</v>
       </c>
       <c r="I8">
         <f ca="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8" ca="1" si="3">IF(J8=0,24,J8+1)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
       </c>
       <c r="L8">
         <f ca="1"/>
-        <v>0.14433652684287976</v>
+        <v>2.9647487486756524E-2</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1968,82 +1957,58 @@
         <v>0</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="P9">
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O10" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="P10">
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O11" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="P11">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O12" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="P12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O14" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="P14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <f ca="1">SUM(E:E)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="17" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17">
-        <f ca="1">SUM(E:E)</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18">
+        <v>26</v>
+      </c>
+      <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P19" s="5">
-        <f ca="1">P18/P17</f>
-        <v>0.58415841584158412</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P16" s="5">
+        <f ca="1">P15/P14</f>
+        <v>0.44736842105263158</v>
       </c>
     </row>
   </sheetData>
@@ -2062,7 +2027,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,27 +2039,27 @@
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>53.262740700931225</v>
+        <v>46.280986890381101</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>87.059225865986193</v>
+        <v>58.313407449957765</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>89.392858301395691</v>
+        <v>16.309823474771495</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>102.1034135750281</v>
+        <v>42.250408594819575</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>80.793111143763156</v>
+        <v>57.177030319297593</v>
       </c>
       <c r="G1">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>50.28513840770735</v>
+        <v>19.771469619891395</v>
       </c>
       <c r="H1">
         <f>SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
@@ -2104,7 +2069,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>53.262740700931225</v>
+        <v>46.280986890381101</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2112,37 +2077,37 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>140.26287694108092</v>
+        <v>53.466926407348616</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>139.39350460356161</v>
+        <v>60.693644939151675</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>155.21037028534181</v>
+        <v>81.263321335186674</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>53.571705015105792</v>
+        <v>102.21586329919319</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>98.481701071842338</v>
+        <v>31.880596986439155</v>
       </c>
       <c r="H2">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>53.262740700931225</v>
+        <v>46.280986890381101</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>87.059225865986193</v>
+        <v>58.313407449957765</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>140.26287694108092</v>
+        <v>53.466926407348616</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2150,37 +2115,37 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>33.697365073979007</v>
+        <v>73.130535601968518</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>15.392826188683067</v>
+        <v>61.199726587516153</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>155.40780833461673</v>
+        <v>107.70799396261188</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>52.252276119084058</v>
+        <v>41.489674917967214</v>
       </c>
       <c r="H3">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>87.059225865986193</v>
+        <v>58.313407449957765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>89.392858301395691</v>
+        <v>16.309823474771495</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>139.39350460356161</v>
+        <v>60.693644939151675</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>33.697365073979007</v>
+        <v>73.130535601968518</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2188,37 +2153,37 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>35.512067136088334</v>
+        <v>42.322284082048775</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>142.48080174489314</v>
+        <v>41.582336396366649</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>41.027561330877766</v>
+        <v>36.077260949324263</v>
       </c>
       <c r="H4">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>89.392858301395691</v>
+        <v>16.309823474771495</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>102.1034135750281</v>
+        <v>42.250408594819575</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>155.21037028534181</v>
+        <v>81.263321335186674</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>15.392826188683067</v>
+        <v>61.199726587516153</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>35.512067136088334</v>
+        <v>42.322284082048775</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2226,37 +2191,37 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>168.30655458151938</v>
+        <v>54.665064573078233</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>64.151021274267478</v>
+        <v>49.413440566461489</v>
       </c>
       <c r="H5">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>102.1034135750281</v>
+        <v>42.250408594819575</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>80.793111143763156</v>
+        <v>57.177030319297593</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>53.571705015105792</v>
+        <v>102.21586329919319</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>155.40780833461673</v>
+        <v>107.70799396261188</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>142.48080174489314</v>
+        <v>41.582336396366649</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>168.30655458151938</v>
+        <v>54.665064573078233</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2264,37 +2229,37 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>104.31410863854919</v>
+        <v>76.36535859124939</v>
       </c>
       <c r="H6">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>80.793111143763156</v>
+        <v>57.177030319297593</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>50.28513840770735</v>
+        <v>19.771469619891395</v>
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>98.481701071842338</v>
+        <v>31.880596986439155</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>52.252276119084058</v>
+        <v>41.489674917967214</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>41.027561330877766</v>
+        <v>36.077260949324263</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>64.151021274267478</v>
+        <v>49.413440566461489</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>104.31410863854919</v>
+        <v>76.36535859124939</v>
       </c>
       <c r="G7">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2302,7 +2267,7 @@
       </c>
       <c r="H7">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>50.28513840770735</v>
+        <v>19.771469619891395</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2312,27 +2277,27 @@
       </c>
       <c r="B8">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>53.262740700931225</v>
+        <v>46.280986890381101</v>
       </c>
       <c r="C8">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>87.059225865986193</v>
+        <v>58.313407449957765</v>
       </c>
       <c r="D8">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>89.392858301395691</v>
+        <v>16.309823474771495</v>
       </c>
       <c r="E8">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>102.1034135750281</v>
+        <v>42.250408594819575</v>
       </c>
       <c r="F8">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>80.793111143763156</v>
+        <v>57.177030319297593</v>
       </c>
       <c r="G8">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>50.28513840770735</v>
+        <v>19.771469619891395</v>
       </c>
       <c r="H8">
         <f>SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -2352,7 +2317,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,27 +2329,27 @@
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>0.66578425876164027</v>
+        <v>0.57851233612976372</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>1.0882403233248275</v>
+        <v>0.72891759312447202</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>1.1174107287674462</v>
+        <v>0.20387279343464368</v>
       </c>
       <c r="E1">
         <f ca="1">Distances!E1/80</f>
-        <v>1.2762926696878512</v>
+        <v>0.52813010743524469</v>
       </c>
       <c r="F1">
         <f ca="1">Distances!F1/80</f>
-        <v>1.0099138892970394</v>
+        <v>0.71471287899121994</v>
       </c>
       <c r="G1">
         <f ca="1">Distances!G1/80</f>
-        <v>0.62856423009634188</v>
+        <v>0.24714337024864244</v>
       </c>
       <c r="H1">
         <f>Distances!H1/80</f>
@@ -2394,7 +2359,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>0.66578425876164027</v>
+        <v>0.57851233612976372</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -2402,37 +2367,37 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>1.7532859617635115</v>
+        <v>0.6683365800918577</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>1.7424188075445202</v>
+        <v>0.75867056173939595</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>1.9401296285667726</v>
+        <v>1.0157915166898335</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>0.66964631268882235</v>
+        <v>1.2776982912399149</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>1.2310212633980293</v>
+        <v>0.39850746233048945</v>
       </c>
       <c r="H2">
         <f ca="1">Distances!H2/80</f>
-        <v>0.66578425876164027</v>
+        <v>0.57851233612976372</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>1.0882403233248275</v>
+        <v>0.72891759312447202</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>1.7532859617635115</v>
+        <v>0.6683365800918577</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -2440,37 +2405,37 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>0.42121706342473758</v>
+        <v>0.91413169502460645</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>0.19241032735853833</v>
+        <v>0.76499658234395196</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>1.9425976041827091</v>
+        <v>1.3463499245326485</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>0.65315345148855075</v>
+        <v>0.51862093647459018</v>
       </c>
       <c r="H3">
         <f ca="1">Distances!H3/80</f>
-        <v>1.0882403233248275</v>
+        <v>0.72891759312447202</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>1.1174107287674462</v>
+        <v>0.20387279343464368</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>1.7424188075445202</v>
+        <v>0.75867056173939595</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>0.42121706342473758</v>
+        <v>0.91413169502460645</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>0.44390083920110418</v>
+        <v>0.52902855102560964</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>1.7810100218111642</v>
+        <v>0.51977920495458307</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>0.51284451663597208</v>
+        <v>0.45096576186655329</v>
       </c>
       <c r="H4">
         <f ca="1">Distances!H4/80</f>
-        <v>1.1174107287674462</v>
+        <v>0.20387279343464368</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>1.2762926696878512</v>
+        <v>0.52813010743524469</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>1.9401296285667726</v>
+        <v>1.0157915166898335</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>0.19241032735853833</v>
+        <v>0.76499658234395196</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>0.44390083920110418</v>
+        <v>0.52902855102560964</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -2516,37 +2481,37 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>2.1038319322689922</v>
+        <v>0.68331330716347793</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>0.80188776592834343</v>
+        <v>0.61766800708076863</v>
       </c>
       <c r="H5">
         <f ca="1">Distances!H5/80</f>
-        <v>1.2762926696878512</v>
+        <v>0.52813010743524469</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>1.0099138892970394</v>
+        <v>0.71471287899121994</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>0.66964631268882235</v>
+        <v>1.2776982912399149</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>1.9425976041827091</v>
+        <v>1.3463499245326485</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>1.7810100218111642</v>
+        <v>0.51977920495458307</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>2.1038319322689922</v>
+        <v>0.68331330716347793</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -2554,37 +2519,37 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>1.3039263579818647</v>
+        <v>0.95456698239061732</v>
       </c>
       <c r="H6">
         <f ca="1">Distances!H6/80</f>
-        <v>1.0099138892970394</v>
+        <v>0.71471287899121994</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">Distances!A7/80</f>
-        <v>0.62856423009634188</v>
+        <v>0.24714337024864244</v>
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>1.2310212633980293</v>
+        <v>0.39850746233048945</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>0.65315345148855075</v>
+        <v>0.51862093647459018</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>0.51284451663597208</v>
+        <v>0.45096576186655329</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>0.80188776592834343</v>
+        <v>0.61766800708076863</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>1.3039263579818647</v>
+        <v>0.95456698239061732</v>
       </c>
       <c r="G7">
         <f ca="1">Distances!G7/80</f>
@@ -2592,7 +2557,7 @@
       </c>
       <c r="H7">
         <f ca="1">Distances!H7/80</f>
-        <v>0.62856423009634188</v>
+        <v>0.24714337024864244</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2602,455 +2567,31 @@
       </c>
       <c r="B8">
         <f ca="1">Distances!B8/80</f>
-        <v>0.66578425876164027</v>
+        <v>0.57851233612976372</v>
       </c>
       <c r="C8">
         <f ca="1">Distances!C8/80</f>
-        <v>1.0882403233248275</v>
+        <v>0.72891759312447202</v>
       </c>
       <c r="D8">
         <f ca="1">Distances!D8/80</f>
-        <v>1.1174107287674462</v>
+        <v>0.20387279343464368</v>
       </c>
       <c r="E8">
         <f ca="1">Distances!E8/80</f>
-        <v>1.2762926696878512</v>
+        <v>0.52813010743524469</v>
       </c>
       <c r="F8">
         <f ca="1">Distances!F8/80</f>
-        <v>1.0099138892970394</v>
+        <v>0.71471287899121994</v>
       </c>
       <c r="G8">
         <f ca="1">Distances!G8/80</f>
-        <v>0.62856423009634188</v>
+        <v>0.24714337024864244</v>
       </c>
       <c r="H8">
         <f>Distances!H8/80</f>
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2D636C-B1F2-40ED-AFFD-CEAECA9A3EA3}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3193DF46-A5F5-411E-9E65-0CD84739E551}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A14196F-B2E4-4597-BD06-5E39E2E8AD11}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/6 5/ExactModelData.xlsx
+++ b/6 5/ExactModelData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\6 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A75148-2EDC-4CA1-B1EB-A040E65559E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707EC3EF-B8D8-4361-BDB2-F16748CF9086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -356,22 +356,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-23.998066958797438</c:v>
+                  <c:v>61.845942613161341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-58.295525382486332</c:v>
+                  <c:v>-96.77430300221323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.603085803194489</c:v>
+                  <c:v>-64.243175804277399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-11.343950447235912</c:v>
+                  <c:v>34.951182066724826</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.223247266323398</c:v>
+                  <c:v>-57.175962633600449</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-17.958963772503495</c:v>
+                  <c:v>14.716913114056354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -386,22 +386,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-39.573002536940535</c:v>
+                  <c:v>-57.505434763450182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4440252091573598</c:v>
+                  <c:v>39.539220264454968</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.263623531182418</c:v>
+                  <c:v>-73.496099210313275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.699039481047464</c:v>
+                  <c:v>3.2907027824007997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.429449526918546</c:v>
+                  <c:v>9.9424353673452686</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.2696209797181979</c:v>
+                  <c:v>-62.218568222624128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,8 +1471,8 @@
   </sheetPr>
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,11 +1563,11 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.3880104124132016</v>
+        <v>0.72385597229679211</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>11.449920319647729</v>
+        <v>12.295379473300009</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
@@ -1591,9 +1591,8 @@
       <c r="K2">
         <v>24</v>
       </c>
-      <c r="L2" cm="1">
-        <f t="array" aca="1" ref="L2:L8" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
-        <v>6.5889076700628851E-2</v>
+      <c r="L2">
+        <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
@@ -1606,11 +1605,11 @@
       </c>
       <c r="S2" cm="1">
         <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>1.3880104124132016</v>
+        <v>0.72385597229679211</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>11.449920319647729</v>
+        <v>12.295379473300009</v>
       </c>
       <c r="U2">
         <v>16</v>
@@ -1622,46 +1621,46 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>Rigid</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.1525435534640756</v>
+        <v>0.72385597229679211</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>10.125960716283139</v>
+        <v>12.295379473300009</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H8" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>-23.998066958797438</v>
+        <v>61.845942613161341</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>-39.573002536940535</v>
+        <v>-57.505434763450182</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3:I8" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K3">
         <f ca="1">IF(J3=0,24,J3+1)</f>
-        <v>20</v>
-      </c>
-      <c r="L3">
-        <f ca="1"/>
-        <v>0.12087296988564111</v>
+        <v>6</v>
+      </c>
+      <c r="L3" cm="1">
+        <f t="array" aca="1" ref="L3:L8" ca="1">_xlfn.RANDARRAY(P2,1,P7,P6,FALSE)</f>
+        <v>1.6920852305930184E-2</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -1674,11 +1673,11 @@
       </c>
       <c r="S3">
         <f ca="1"/>
-        <v>1.2859076291681188</v>
+        <v>0.85415680163822527</v>
       </c>
       <c r="T3">
         <f ca="1"/>
-        <v>13.995822582786426</v>
+        <v>8.5121343617313912</v>
       </c>
       <c r="U3">
         <v>22</v>
@@ -1694,11 +1693,11 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.2859076291681188</v>
+        <v>0.85415680163822527</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>13.995822582786426</v>
+        <v>8.5121343617313912</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
@@ -1709,15 +1708,15 @@
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>-58.295525382486332</v>
+        <v>-96.77430300221323</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>1.4440252091573598</v>
+        <v>39.539220264454968</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J8" ca="1" si="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -1729,7 +1728,7 @@
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>0.13917919768142664</v>
+        <v>8.4756372840253724E-2</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -1742,11 +1741,11 @@
       </c>
       <c r="S4">
         <f ca="1"/>
-        <v>1.1525435534640756</v>
+        <v>1.4348995753206244</v>
       </c>
       <c r="T4">
         <f ca="1"/>
-        <v>10.125960716283139</v>
+        <v>13.934182886345367</v>
       </c>
       <c r="U4">
         <v>30</v>
@@ -1758,34 +1757,34 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Rigid</v>
+        <v>11 metre</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5:E5" ca="1">_xlfn.XLOOKUP(B5,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.3880104124132016</v>
+        <v>1.4348995753206244</v>
       </c>
       <c r="D5" s="8">
         <f ca="1"/>
-        <v>11.449920319647729</v>
+        <v>13.934182886345367</v>
       </c>
       <c r="E5" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>14.603085803194489</v>
+        <v>-64.243175804277399</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>7.263623531182418</v>
+        <v>-73.496099210313275</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="1"/>
@@ -1797,13 +1796,14 @@
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>0.15119010018956883</v>
+        <v>0.11409611910242703</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="5">
-        <v>0.33</v>
+        <f ca="1">COUNT(E:E)/P2/2</f>
+        <v>0.41666666666666669</v>
       </c>
       <c r="R5" s="6"/>
     </row>
@@ -1813,46 +1813,46 @@
       </c>
       <c r="B6" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>Rigid</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6:E6" ca="1">_xlfn.XLOOKUP(B6,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.1525435534640756</v>
+        <v>0.72385597229679211</v>
       </c>
       <c r="D6" s="8">
         <f ca="1"/>
-        <v>10.125960716283139</v>
+        <v>12.295379473300009</v>
       </c>
       <c r="E6" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>-11.343950447235912</v>
+        <v>34.951182066724826</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>40.699039481047464</v>
+        <v>3.2907027824007997</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>0.11874334054165578</v>
+        <v>7.0176198834978692E-2</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -1869,11 +1869,11 @@
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>43.223247266323398</v>
+        <v>-57.175962633600449</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>37.429449526918546</v>
+        <v>9.9424353673452686</v>
       </c>
       <c r="I7">
         <f ca="1"/>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7:K8" ca="1" si="3">IF(J7=0,24,J7+1)</f>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>0.1251762946504682</v>
+        <v>0.10842890648131584</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -1905,27 +1905,27 @@
       </c>
       <c r="G8">
         <f ca="1"/>
-        <v>-17.958963772503495</v>
+        <v>14.716913114056354</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>-8.2696209797181979</v>
+        <v>-62.218568222624128</v>
       </c>
       <c r="I8">
         <f ca="1"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L8">
         <f ca="1"/>
-        <v>2.9647487486756524E-2</v>
+        <v>0.10807365613826109</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2002,13 +2002,13 @@
       </c>
       <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.44736842105263158</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -2039,27 +2039,27 @@
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>46.280986890381101</v>
+        <v>84.449959414104342</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>58.313407449957765</v>
+        <v>104.54001942168016</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>16.309823474771495</v>
+        <v>97.615891311566187</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>42.250408594819575</v>
+        <v>35.105752415572113</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>57.177030319297593</v>
+        <v>58.033979047732998</v>
       </c>
       <c r="G1">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>19.771469619891395</v>
+        <v>63.935418691676816</v>
       </c>
       <c r="H1">
         <f>SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
@@ -2069,7 +2069,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>46.280986890381101</v>
+        <v>84.449959414104342</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2077,37 +2077,37 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>53.466926407348616</v>
+        <v>185.95173402947034</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>60.693644939151675</v>
+        <v>127.099044578388</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>81.263321335186674</v>
+        <v>66.479308700859619</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>102.21586329919319</v>
+        <v>136.80434610694863</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>31.880596986439155</v>
+        <v>47.364111398098593</v>
       </c>
       <c r="H2">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>46.280986890381101</v>
+        <v>84.449959414104342</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>58.313407449957765</v>
+        <v>104.54001942168016</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>53.466926407348616</v>
+        <v>185.95173402947034</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2115,37 +2115,37 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>73.130535601968518</v>
+        <v>117.62337219078189</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>61.199726587516153</v>
+        <v>136.6219544447151</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>107.70799396261188</v>
+        <v>49.436810538244572</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>41.489674917967214</v>
+        <v>150.94680781277179</v>
       </c>
       <c r="H3">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>58.313407449957765</v>
+        <v>104.54001942168016</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>16.309823474771495</v>
+        <v>97.615891311566187</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>60.693644939151675</v>
+        <v>127.099044578388</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>73.130535601968518</v>
+        <v>117.62337219078189</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2153,37 +2153,37 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>42.322284082048775</v>
+        <v>125.44215237992665</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>41.582336396366649</v>
+        <v>83.73729488386229</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>36.077260949324263</v>
+        <v>79.761383809268651</v>
       </c>
       <c r="H4">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>16.309823474771495</v>
+        <v>97.615891311566187</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>42.250408594819575</v>
+        <v>35.105752415572113</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>81.263321335186674</v>
+        <v>66.479308700859619</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>61.199726587516153</v>
+        <v>136.6219544447151</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>42.322284082048775</v>
+        <v>125.44215237992665</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2191,37 +2191,37 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>54.665064573078233</v>
+        <v>92.366965615507155</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>49.413440566461489</v>
+        <v>68.563038349089538</v>
       </c>
       <c r="H5">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>42.250408594819575</v>
+        <v>35.105752415572113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>57.177030319297593</v>
+        <v>58.033979047732998</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>102.21586329919319</v>
+        <v>136.80434610694863</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>107.70799396261188</v>
+        <v>49.436810538244572</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>41.582336396366649</v>
+        <v>83.73729488386229</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>54.665064573078233</v>
+        <v>92.366965615507155</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2229,37 +2229,37 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>76.36535859124939</v>
+        <v>101.86165138254728</v>
       </c>
       <c r="H6">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>57.177030319297593</v>
+        <v>58.033979047732998</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>19.771469619891395</v>
+        <v>63.935418691676816</v>
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>31.880596986439155</v>
+        <v>47.364111398098593</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>41.489674917967214</v>
+        <v>150.94680781277179</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>36.077260949324263</v>
+        <v>79.761383809268651</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>49.413440566461489</v>
+        <v>68.563038349089538</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>76.36535859124939</v>
+        <v>101.86165138254728</v>
       </c>
       <c r="G7">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="H7">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>19.771469619891395</v>
+        <v>63.935418691676816</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2277,27 +2277,27 @@
       </c>
       <c r="B8">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>46.280986890381101</v>
+        <v>84.449959414104342</v>
       </c>
       <c r="C8">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>58.313407449957765</v>
+        <v>104.54001942168016</v>
       </c>
       <c r="D8">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>16.309823474771495</v>
+        <v>97.615891311566187</v>
       </c>
       <c r="E8">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>42.250408594819575</v>
+        <v>35.105752415572113</v>
       </c>
       <c r="F8">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>57.177030319297593</v>
+        <v>58.033979047732998</v>
       </c>
       <c r="G8">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>19.771469619891395</v>
+        <v>63.935418691676816</v>
       </c>
       <c r="H8">
         <f>SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -2329,27 +2329,27 @@
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>0.57851233612976372</v>
+        <v>1.0556244926763043</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>0.72891759312447202</v>
+        <v>1.306750242771002</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>0.20387279343464368</v>
+        <v>1.2201986413945773</v>
       </c>
       <c r="E1">
         <f ca="1">Distances!E1/80</f>
-        <v>0.52813010743524469</v>
+        <v>0.43882190519465142</v>
       </c>
       <c r="F1">
         <f ca="1">Distances!F1/80</f>
-        <v>0.71471287899121994</v>
+        <v>0.72542473809666252</v>
       </c>
       <c r="G1">
         <f ca="1">Distances!G1/80</f>
-        <v>0.24714337024864244</v>
+        <v>0.79919273364596022</v>
       </c>
       <c r="H1">
         <f>Distances!H1/80</f>
@@ -2359,7 +2359,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>0.57851233612976372</v>
+        <v>1.0556244926763043</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -2367,37 +2367,37 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>0.6683365800918577</v>
+        <v>2.3243966753683791</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>0.75867056173939595</v>
+        <v>1.58873805722985</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>1.0157915166898335</v>
+        <v>0.83099135876074526</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>1.2776982912399149</v>
+        <v>1.7100543263368579</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>0.39850746233048945</v>
+        <v>0.5920513924762324</v>
       </c>
       <c r="H2">
         <f ca="1">Distances!H2/80</f>
-        <v>0.57851233612976372</v>
+        <v>1.0556244926763043</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>0.72891759312447202</v>
+        <v>1.306750242771002</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>0.6683365800918577</v>
+        <v>2.3243966753683791</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -2405,37 +2405,37 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>0.91413169502460645</v>
+        <v>1.4702921523847736</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>0.76499658234395196</v>
+        <v>1.7077744305589388</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>1.3463499245326485</v>
+        <v>0.61796013172805719</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>0.51862093647459018</v>
+        <v>1.8868350976596475</v>
       </c>
       <c r="H3">
         <f ca="1">Distances!H3/80</f>
-        <v>0.72891759312447202</v>
+        <v>1.306750242771002</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>0.20387279343464368</v>
+        <v>1.2201986413945773</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>0.75867056173939595</v>
+        <v>1.58873805722985</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>0.91413169502460645</v>
+        <v>1.4702921523847736</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -2443,37 +2443,37 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>0.52902855102560964</v>
+        <v>1.5680269047490831</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>0.51977920495458307</v>
+        <v>1.0467161860482785</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>0.45096576186655329</v>
+        <v>0.99701729761585811</v>
       </c>
       <c r="H4">
         <f ca="1">Distances!H4/80</f>
-        <v>0.20387279343464368</v>
+        <v>1.2201986413945773</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>0.52813010743524469</v>
+        <v>0.43882190519465142</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>1.0157915166898335</v>
+        <v>0.83099135876074526</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>0.76499658234395196</v>
+        <v>1.7077744305589388</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>0.52902855102560964</v>
+        <v>1.5680269047490831</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -2481,37 +2481,37 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>0.68331330716347793</v>
+        <v>1.1545870701938394</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>0.61766800708076863</v>
+        <v>0.85703797936361925</v>
       </c>
       <c r="H5">
         <f ca="1">Distances!H5/80</f>
-        <v>0.52813010743524469</v>
+        <v>0.43882190519465142</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>0.71471287899121994</v>
+        <v>0.72542473809666252</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>1.2776982912399149</v>
+        <v>1.7100543263368579</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>1.3463499245326485</v>
+        <v>0.61796013172805719</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>0.51977920495458307</v>
+        <v>1.0467161860482785</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>0.68331330716347793</v>
+        <v>1.1545870701938394</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -2519,37 +2519,37 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>0.95456698239061732</v>
+        <v>1.2732706422818409</v>
       </c>
       <c r="H6">
         <f ca="1">Distances!H6/80</f>
-        <v>0.71471287899121994</v>
+        <v>0.72542473809666252</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">Distances!A7/80</f>
-        <v>0.24714337024864244</v>
+        <v>0.79919273364596022</v>
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>0.39850746233048945</v>
+        <v>0.5920513924762324</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>0.51862093647459018</v>
+        <v>1.8868350976596475</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>0.45096576186655329</v>
+        <v>0.99701729761585811</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>0.61766800708076863</v>
+        <v>0.85703797936361925</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>0.95456698239061732</v>
+        <v>1.2732706422818409</v>
       </c>
       <c r="G7">
         <f ca="1">Distances!G7/80</f>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="H7">
         <f ca="1">Distances!H7/80</f>
-        <v>0.24714337024864244</v>
+        <v>0.79919273364596022</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2567,27 +2567,27 @@
       </c>
       <c r="B8">
         <f ca="1">Distances!B8/80</f>
-        <v>0.57851233612976372</v>
+        <v>1.0556244926763043</v>
       </c>
       <c r="C8">
         <f ca="1">Distances!C8/80</f>
-        <v>0.72891759312447202</v>
+        <v>1.306750242771002</v>
       </c>
       <c r="D8">
         <f ca="1">Distances!D8/80</f>
-        <v>0.20387279343464368</v>
+        <v>1.2201986413945773</v>
       </c>
       <c r="E8">
         <f ca="1">Distances!E8/80</f>
-        <v>0.52813010743524469</v>
+        <v>0.43882190519465142</v>
       </c>
       <c r="F8">
         <f ca="1">Distances!F8/80</f>
-        <v>0.71471287899121994</v>
+        <v>0.72542473809666252</v>
       </c>
       <c r="G8">
         <f ca="1">Distances!G8/80</f>
-        <v>0.24714337024864244</v>
+        <v>0.79919273364596022</v>
       </c>
       <c r="H8">
         <f>Distances!H8/80</f>
